--- a/data/trans_dic/P9_4-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P9_4-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no posee ni teléfono móvil ni ordenador ni portátil en su vivienda actual</t>
+          <t>Población que no posee ni teléfono móvil ni ordenador ni portátil en su vivienda actual (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,0</t>
+          <t>0,0; 2,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,58</t>
+          <t>0,0; 1,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -866,7 +867,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>0,18%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,82</t>
+          <t>0,0; 1,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,34</t>
+          <t>0,0; 2,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,71</t>
+          <t>0,0; 0,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,82</t>
+          <t>0,0; 1,1</t>
         </is>
       </c>
     </row>
@@ -926,7 +927,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -946,7 +947,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,25%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,71</t>
+          <t>0,0; 1,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,66</t>
+          <t>0,0; 2,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,09</t>
+          <t>0,0; 0,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,34</t>
+          <t>0,0; 1,5</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1007,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1016,7 +1017,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1026,7 +1027,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>4,93%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,11; 6,96</t>
+          <t>1,28; 7,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,17; 11,93</t>
+          <t>0,89; 7,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,31; 8,84</t>
+          <t>3,07; 8,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,15; 10,11</t>
+          <t>3,8; 11,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,65; 6,63</t>
+          <t>2,9; 6,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,24; 9,8</t>
+          <t>2,85; 7,67</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1096,7 +1097,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1106,7 +1107,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>0,95%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,32</t>
+          <t>0,34; 1,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,88</t>
+          <t>0,24; 1,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,66; 1,91</t>
+          <t>0,65; 1,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,05</t>
+          <t>0,71; 2,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,62; 1,33</t>
+          <t>0,63; 1,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,94</t>
+          <t>0,58; 1,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no posee ni teléfono móvil ni ordenador ni portátil en su vivienda actual (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2917</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2917</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14432</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13845</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2069</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2423</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2069</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2423</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 10566</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 15830</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 10364</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 14711</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2489</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2489</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8326</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 12655</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 10087</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 15083</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>17627</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>15484</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>40529</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>46724</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>58156</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>62208</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>7021; 38335</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4831; 38250</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>22441; 64573</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>27301; 79560</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>37003; 86685</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>35969; 96894</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>24606</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>20397</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>40529</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>46724</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>65135</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>67121</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>11667; 43280</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>8317; 44010</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>23330; 64337</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>25792; 79925</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>44399; 96428</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>40677; 102727</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>